--- a/doc/excel/培训/[sample_cet_unit_train]培训-培训记录导入样表.xlsx
+++ b/doc/excel/培训/[sample_cet_unit_train]培训-培训记录导入样表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B5D80D-99C2-46E6-9D6A-7A948E6D3B13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95040138-1D66-4133-99A1-ACAF3ED01BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1575" windowWidth="26235" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2760" windowWidth="20025" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{A00FB431-1235-4B85-B038-53F5874D4AD9}">
-      <formula1>"中层干部,分党委班子成员,党支部班子成员,组织员"</formula1>
+      <formula1>"中层干部,分党委班子成员,党支部班子成员,组织员,校领导,处级干部,科级干部,入党积极分子,预备党员"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
